--- a/需求分析/Q&A.xlsx
+++ b/需求分析/Q&A.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22290" windowHeight="9135"/>
+    <workbookView windowWidth="21435" windowHeight="8985"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="step" sheetId="1" r:id="rId1"/>
+    <sheet name="涉众" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>项目背景</t>
   </si>
@@ -24,15 +24,24 @@
     <t>公司对项目的期望</t>
   </si>
   <si>
+    <t>当先公司对项目的期望是盈利，并对日后更多的业务做铺垫</t>
+  </si>
+  <si>
     <t>客户对项目的期望</t>
   </si>
   <si>
+    <t>客户都是中小型的生产企业，在管理方面落后，成本高。希望通过该项目得到改善</t>
+  </si>
+  <si>
     <t>项目的目标</t>
   </si>
   <si>
     <t>关键涉众(涉及角色)</t>
   </si>
   <si>
+    <t>[涉众]</t>
+  </si>
+  <si>
     <t>涉众利益及待解决问题</t>
   </si>
   <si>
@@ -42,6 +51,9 @@
     <t>项目成功标准</t>
   </si>
   <si>
+    <t>满足基本业务需求</t>
+  </si>
+  <si>
     <t>业务概念</t>
   </si>
   <si>
@@ -55,6 +67,90 @@
   </si>
   <si>
     <t>非功能性需求</t>
+  </si>
+  <si>
+    <t>涉众</t>
+  </si>
+  <si>
+    <t>代表人物</t>
+  </si>
+  <si>
+    <t>待解决的问题/对系统的期望</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.能随时随地进行针对性的采购
+2.相关产品能有专人进行介绍
+3.可以联系到商家的相关负责人
+</t>
+  </si>
+  <si>
+    <t>业务人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.可以方便的对客户的资料进行管理
+2.更好的跟客户进行交流
+3.能对客户的跟进记录
+4.与客户产生的交易进行记录，方便日后查询
+5.当开发客户遇到困难时，可以向团队内成员求助
+</t>
+  </si>
+  <si>
+    <t>业务主管</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.能够查看到部门内的业务员发展客户的情况
+2.能够查看部门内的业务员业绩
+3.能够为当前的销售点补充库存
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">财务人员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.方便查看各个部门的订单信息
+2.方便查看各个销售点的库存记录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">财务主管 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.更高效的完成对账务的统计与审批
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后勤人员 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.方便管理商品
+2.能记录下商品库存的进仓数据
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后勤主管 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.能跟方便的完成各销售点的调货
+2.更方便的库存管理
+</t>
+  </si>
+  <si>
+    <t>跟单人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.方便跟进未完成的订单，随时知道订单处于什么样的状态
+</t>
   </si>
 </sst>
 </file>
@@ -67,7 +163,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +172,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,69 +220,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,27 +277,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -220,6 +302,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -236,187 +325,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,21 +516,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,6 +544,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -480,6 +569,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,30 +611,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -532,154 +621,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="19" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1028,11 +1132,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A16"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1045,67 +1149,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1114,15 +1251,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="72.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1131,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/需求分析/Q&A.xlsx
+++ b/需求分析/Q&A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21435" windowHeight="8985"/>
+    <workbookView windowWidth="21435" windowHeight="9510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="step" sheetId="1" r:id="rId1"/>
@@ -180,23 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,37 +203,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +243,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -301,16 +302,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,43 +325,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,103 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,31 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +524,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,21 +559,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -569,30 +569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +587,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -624,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,19 +636,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,19 +657,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,95 +678,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,9 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1132,11 +1129,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1206,11 +1203,11 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
@@ -1251,11 +1248,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1303,7 +1300,6 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5"/>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1312,7 +1308,6 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6"/>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1321,7 +1316,6 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7"/>
       <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1324,6 @@
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8"/>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
